--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1976.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1976.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356367111246389</v>
+        <v>0.3261028230190277</v>
       </c>
       <c r="B1">
-        <v>2.787683113677493</v>
+        <v>2.454371690750122</v>
       </c>
       <c r="C1">
-        <v>9.945567415077338</v>
+        <v>8.756747245788574</v>
       </c>
       <c r="D1">
-        <v>1.990938338134542</v>
+        <v>2.097196102142334</v>
       </c>
       <c r="E1">
-        <v>1.031185094663075</v>
+        <v>1.178708076477051</v>
       </c>
     </row>
   </sheetData>
